--- a/data/income_statement/2digits/size/70_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/70_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>70-Activities of head offices; management consultancy activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>70-Activities of head offices; management consultancy activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1160 +841,1310 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1037009.35305</v>
+        <v>1488838.2397</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>446301.6362299999</v>
+        <v>1006705.14217</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>563408.48829</v>
+        <v>1195047.65667</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>708764.34909</v>
+        <v>1403959.63923</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1088003.54358</v>
+        <v>2093845.28691</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1242423.50016</v>
+        <v>2137761.02166</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1727641.53692</v>
+        <v>2699056.30452</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1698843.58274</v>
+        <v>3049088.61285</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2629651.80283</v>
+        <v>3977249.00734</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3668303.61363</v>
+        <v>6153986.794020001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3720222.52362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6722196.23432</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6351766.687</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>982270.9513399999</v>
+        <v>1331234.79695</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>394411.29178</v>
+        <v>829847.2983800001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>505304.4844</v>
+        <v>1044659.87332</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>590577.72338</v>
+        <v>1168869.32214</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>942316.81762</v>
+        <v>1762832.1965</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1051087.77573</v>
+        <v>1816145.15922</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1472293.1634</v>
+        <v>2350959.55905</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1437707.17678</v>
+        <v>2590498.97088</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2015443.88558</v>
+        <v>3184023.53378</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2951610.68557</v>
+        <v>4960351.39128</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2901212.16066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5432222.98677</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5070128.611</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>28851.32396</v>
+        <v>50906.08007</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>21048.44013</v>
+        <v>50595.9371</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>37431.37429</v>
+        <v>57809.19268</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>83399.35932</v>
+        <v>117638.76838</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>86170.89209000001</v>
+        <v>164805.56762</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>126745.20854</v>
+        <v>164032.07058</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>199726.59453</v>
+        <v>216619.971</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>146979.08446</v>
+        <v>232883.44711</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>442300.51296</v>
+        <v>504669.61989</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>457985.16032</v>
+        <v>620769.7446100001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>563191.4789699999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>699407.33366</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>883916.999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>25887.07775</v>
+        <v>106697.36268</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>30841.90432</v>
+        <v>126261.90669</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>20672.6296</v>
+        <v>92578.59067000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>34787.26639</v>
+        <v>117451.54871</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>59515.83386999999</v>
+        <v>166207.52279</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>64590.51589</v>
+        <v>157583.79186</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>55621.77898999999</v>
+        <v>131476.77447</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>114157.3215</v>
+        <v>225706.19486</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>171907.40429</v>
+        <v>288555.85367</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>258707.76774</v>
+        <v>572865.65813</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>255818.88399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>590565.91389</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>397721.077</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>8879.045679999999</v>
+        <v>11323.30608</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9338.999870000001</v>
+        <v>13665.53293</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>23244.83222</v>
+        <v>26784.03893</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3991.42193</v>
+        <v>7871.89593</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>9023.825490000001</v>
+        <v>10328.47322</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8312.769279999999</v>
+        <v>16994.09829</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15312.05037</v>
+        <v>38952.48914</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>16217.72669</v>
+        <v>32520.70822</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>18020.69485</v>
+        <v>46991.46639</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>37400.62193</v>
+        <v>87627.76142</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>61914.64758999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>88093.13339</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>103115.988</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>8726.763150000001</v>
+        <v>11046.3217</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8844.072649999998</v>
+        <v>12399.91138</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>22954.4763</v>
+        <v>25646.3068</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3956.32321</v>
+        <v>7735.46545</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>8813.295320000001</v>
+        <v>9905.317870000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7955.15255</v>
+        <v>13334.07764</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13893.41856</v>
+        <v>35436.02689</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>14344.92871</v>
+        <v>21560.78971</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>15635.32518</v>
+        <v>44023.73749</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>31792.87074</v>
+        <v>82533.56356000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>58986.92759000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>84223.59228</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>76356.10400000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>146.30029</v>
+        <v>152.95244</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>438.39424</v>
+        <v>444.34422</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>268.5447</v>
+        <v>272.23625</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>14.86075</v>
+        <v>12.4263</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>198.6656</v>
+        <v>338.67143</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>217.71123</v>
+        <v>3326.65578</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>904.9649899999999</v>
+        <v>2733.53796</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1490.57728</v>
+        <v>10309.09665</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1818.32805</v>
+        <v>2438.89608</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4890.074019999999</v>
+        <v>5022.62083</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2742.46731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3038.86033</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>23564.573</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5.98224</v>
+        <v>124.03194</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>56.53298</v>
+        <v>821.27733</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>21.81122</v>
+        <v>865.4958800000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>20.23797</v>
+        <v>124.00418</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>11.86457</v>
+        <v>84.48392000000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>139.9055</v>
+        <v>333.36487</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>513.66682</v>
+        <v>782.92429</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>382.2207</v>
+        <v>650.82186</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>567.04162</v>
+        <v>528.83282</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>717.67717</v>
+        <v>71.57702999999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>185.25269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>830.6807799999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3195.311</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1028130.30737</v>
+        <v>1477514.93362</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>436962.63636</v>
+        <v>993039.60924</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>540163.6560699999</v>
+        <v>1168263.61774</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>704772.92716</v>
+        <v>1396087.7433</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1078979.71809</v>
+        <v>2083516.81369</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1234110.73088</v>
+        <v>2120766.92337</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1712329.48655</v>
+        <v>2660103.81538</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1682625.85605</v>
+        <v>3016567.90463</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2611631.10798</v>
+        <v>3930257.54095</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3630902.9917</v>
+        <v>6066359.032600001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3658307.87603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6634103.100930001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6248650.699</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>865567.4725599999</v>
+        <v>1003939.43747</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>259904.05981</v>
+        <v>446579.20216</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>329260.611</v>
+        <v>520635.29885</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>402120.11061</v>
+        <v>626347.68825</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>700437.8592099999</v>
+        <v>1034888.9894</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>716332.98913</v>
+        <v>1022195.37238</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1166034.77134</v>
+        <v>1447570.13205</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1101335.05374</v>
+        <v>1582336.63342</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1803520.164</v>
+        <v>2209501.6944</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2613774.91581</v>
+        <v>3338318.76172</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2462729.41086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3467448.28245</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3241988.501</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>827.6148000000001</v>
+        <v>36728.87222999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>132.38813</v>
+        <v>22930.78102</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>32773.65466</v>
+        <v>62023.58669</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>25195.30197</v>
+        <v>40656.53428</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>30195.18079</v>
+        <v>47028.30406</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>26330.41775</v>
+        <v>63622.41215</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>67387.23242999999</v>
+        <v>84212.67559</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>68996.46503000001</v>
+        <v>78690.64455</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>160365.03574</v>
+        <v>167009.22139</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>71052.3173</v>
+        <v>64098.3593</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>78324.75934999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>80866.94706000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15332.571</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>19130.39086</v>
+        <v>19584.00776</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>53035.9884</v>
+        <v>73424.84703</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>32175.68059</v>
+        <v>40241.6227</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>29892.18011</v>
+        <v>35313.79626</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>74948.42006</v>
+        <v>96208.75511</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>112015.33102</v>
+        <v>117476.39695</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>241242.02762</v>
+        <v>264991.46096</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>224367.35565</v>
+        <v>263045.50112</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>538676.593</v>
+        <v>556686.0592200001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>957326.33905</v>
+        <v>961584.8366700001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>548916.92553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>621217.00887</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>682655.017</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>224429.94782</v>
+        <v>327287.42983</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>188973.95591</v>
+        <v>332278.67785</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>257030.94139</v>
+        <v>412476.43238</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>323794.64558</v>
+        <v>524672.76507</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>588647.5640799999</v>
+        <v>857191.03579</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>563163.0955800001</v>
+        <v>821526.8795299999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>836659.71664</v>
+        <v>1077654.2647</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>798670.23624</v>
+        <v>1215381.95338</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1097772.34682</v>
+        <v>1465703.33689</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1540816.17479</v>
+        <v>2271520.44967</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1803420.43025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2699835.88405</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2530113.41</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>621179.5190799999</v>
+        <v>620339.1276499999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>17761.72737</v>
+        <v>17944.89626</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>7280.33436</v>
+        <v>5893.65708</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>23237.98295</v>
+        <v>25704.59264</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>6646.69428</v>
+        <v>34460.89444</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>14824.14478</v>
+        <v>19569.68375</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>20745.79465</v>
+        <v>20711.7308</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9300.99682</v>
+        <v>25218.53437</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>6706.18844</v>
+        <v>20103.0769</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>44580.08467</v>
+        <v>41115.11608</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>32067.29573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>65528.44247</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>13887.503</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>162562.83481</v>
+        <v>473575.49615</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>177058.57655</v>
+        <v>546460.4070799999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>210903.04507</v>
+        <v>647628.31889</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>302652.81655</v>
+        <v>769740.05505</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>378541.85888</v>
+        <v>1048627.82429</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>517777.74175</v>
+        <v>1098571.55099</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>546294.7152100001</v>
+        <v>1212533.68333</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>581290.8023099999</v>
+        <v>1434231.27121</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>808110.94398</v>
+        <v>1720755.84655</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1017128.07589</v>
+        <v>2728040.27088</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1195578.46517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3166654.81848</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3006662.198</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>146351.18666</v>
+        <v>509095.64298</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>165957.71399</v>
+        <v>630369.1092899999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>211343.02013</v>
+        <v>728382.7059000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>282824.38833</v>
+        <v>718577.68617</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>393554.38338</v>
+        <v>1027003.84573</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>469790.43535</v>
+        <v>1088963.40079</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>542467.37098</v>
+        <v>1270027.54992</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>551416.76677</v>
+        <v>1525767.43191</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>696469.13448</v>
+        <v>1882272.36535</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>893788.13661</v>
+        <v>2853898.83276</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1179477.54359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2823838.82921</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2782450.49</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>8373.8902</v>
+        <v>9393.5324</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>5690.67175</v>
+        <v>6163.598730000001</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>908.0513100000001</v>
+        <v>1867.77516</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4.54237</v>
+        <v>727.64849</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>10810.54241</v>
+        <v>14289.99964</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>18032.30004</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5133.84736</v>
+        <v>2765.5498</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>6801.76803</v>
+        <v>3718.1839</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>9963.004510000001</v>
+        <v>8187.500540000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>18273.07607</v>
+        <v>17183.89195</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>21690.58545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18128.80019</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>14461.4</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>15931.18501</v>
+        <v>21171.97323</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>25316.96943</v>
+        <v>30527.49297</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>32484.60698</v>
+        <v>43692.83508</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>14537.50719</v>
+        <v>19351.02113</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>36986.15368</v>
+        <v>45980.91089</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>34251.3196</v>
+        <v>51413.37074</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>63136.34064</v>
+        <v>54662.28534</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>63358.08613</v>
+        <v>73673.19684</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>94850.147</v>
+        <v>106234.75362</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>81772.72934999999</v>
+        <v>156632.00443</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>105471.84543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>202795.96316</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>193870.763</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>122046.11145</v>
+        <v>478530.13735</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>134950.07281</v>
+        <v>593678.0175900001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>177950.36184</v>
+        <v>682822.0956600001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>268282.33877</v>
+        <v>698499.0165499999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>345757.68729</v>
+        <v>966732.9351999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>417506.81571</v>
+        <v>1019517.73001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>474197.18298</v>
+        <v>1212599.71478</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>481256.91261</v>
+        <v>1448376.05117</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>591655.98297</v>
+        <v>1767850.11119</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>793742.3311900001</v>
+        <v>2680082.93638</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1052315.11271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2602914.06586</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2574118.327</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>16211.64815</v>
+        <v>-35520.14682999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>11100.86256</v>
+        <v>-83908.70220999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-439.9750599999987</v>
+        <v>-80754.38700999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>19828.42822</v>
+        <v>51162.36888</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-15012.5245</v>
+        <v>21623.97856</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>47987.30640000001</v>
+        <v>9608.150200000004</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3827.344230000004</v>
+        <v>-57493.86659000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>29874.03553999999</v>
+        <v>-91536.16069999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>111641.8095</v>
+        <v>-161516.5188</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>123339.93928</v>
+        <v>-125858.56188</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>16100.92158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>342815.98927</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>224211.708</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>108299.89044</v>
+        <v>1716522.9616</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>174868.03061</v>
+        <v>1963311.82275</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>154227.35229</v>
+        <v>2974356.33611</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>173007.636</v>
+        <v>1866336.85783</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>362544.19447</v>
+        <v>5891914.04458</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>332925.67065</v>
+        <v>3492443.87481</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>464486.7335</v>
+        <v>4558230.72752</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>398733.77078</v>
+        <v>6284411.72311</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>609466.1966700001</v>
+        <v>9132033.80593</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2028698.01398</v>
+        <v>34022123.19764</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1454258.46591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>24423977.40739</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>24166095.452</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>26313.08987</v>
+        <v>250916.68042</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>26924.14875</v>
+        <v>167066.58095</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>32184.33975</v>
+        <v>544881.8997999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>36853.26476999999</v>
+        <v>453670.27192</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>88185.44246999999</v>
+        <v>510545.66292</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>88516.54135</v>
+        <v>318474.6552</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>100425.9875</v>
+        <v>457373.88629</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>80200.04803000001</v>
+        <v>821020.30397</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>258732.52925</v>
+        <v>468348.07716</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>413182.65295</v>
+        <v>1087749.70647</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>351439.9175599999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1096386.61111</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>457515.564</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>10914.1224</v>
+        <v>393119.3961</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>18834.29547</v>
+        <v>834738.57171</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>17428.53104</v>
+        <v>413817.7768</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>16125.01247</v>
+        <v>605129.3063900002</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>45746.89286</v>
+        <v>1042601.91826</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>63361.77712000001</v>
+        <v>683880.0418299999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>42324.78593</v>
+        <v>948936.2025199999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>30197.07772</v>
+        <v>728499.1234800001</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>15730.05866</v>
+        <v>1540007.42745</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>251415.11197</v>
+        <v>6236296.68196</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>223513.36079</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>9186435.9761</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5490035.263</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8766.924439999999</v>
+        <v>224177.14299</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>8685.003909999999</v>
+        <v>180381.87106</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>13773.48943</v>
+        <v>410046.27973</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>17914.2166</v>
+        <v>232358.45052</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>29611.51012</v>
+        <v>559277.33663</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>31956.00065</v>
+        <v>413332.51559</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>33802.49339</v>
+        <v>311098.04058</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>39653.25232</v>
+        <v>323896.97458</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>54827.35243</v>
+        <v>811215.15822</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>113685.24086</v>
+        <v>3139244.2705</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>146066.74596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2378981.19598</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1787325.266</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>409.33144</v>
+        <v>4730.06253</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>308.04021</v>
+        <v>6414.392620000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>444.46801</v>
+        <v>11337.13451</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>319.49345</v>
+        <v>8428.23776</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>436.54119</v>
+        <v>16457.47203</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1089.99288</v>
+        <v>17126.33694</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>550.6033100000001</v>
+        <v>21398.51644</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>613.85</v>
+        <v>22370.86694</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2322.91107</v>
+        <v>30356.87031</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1868.63796</v>
+        <v>60556.12742</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2446.25824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>70586.43562</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>44457.241</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2096.84168</v>
+        <v>3016.79028</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2511.74283</v>
+        <v>7815.585939999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2489.59225</v>
+        <v>6186.643230000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6931.438690000001</v>
+        <v>8495.5242</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>38362.24262</v>
+        <v>12790.80327</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2610.90672</v>
+        <v>130200.85313</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2461.39109</v>
+        <v>124975.70988</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4716.10241</v>
+        <v>140006.94413</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>17584.73975</v>
+        <v>160250.9267</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>48620.82301</v>
+        <v>24757.73107</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>54879.33684</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>11692.91898</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>12570.68</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>9626.99476</v>
+        <v>86003.22434999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>39556.04844</v>
+        <v>106372.36268</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>12731.54093</v>
+        <v>77589.74262999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>15819.94978</v>
+        <v>54955.80442999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>47562.24059</v>
+        <v>242711.42931</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>11265.31246</v>
+        <v>263954.75262</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>48864.71474</v>
+        <v>76285.06146000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>16707.06829</v>
+        <v>186978.39158</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>17561.6256</v>
+        <v>222306.26531</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>40446.85108000001</v>
+        <v>385920.2529500001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>56289.25484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>323678.4245200001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>821259.057</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>34923.99428</v>
+        <v>608249.7305900001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>48177.24447</v>
+        <v>581067.9936800001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>43790.82105</v>
+        <v>1438694.76654</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>44463.17814</v>
+        <v>381013.33584</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>72263.20772000001</v>
+        <v>3337268.76641</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>86817.05055</v>
+        <v>1470540.61207</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>168571.12746</v>
+        <v>2321134.75999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>155520.91249</v>
+        <v>3620244.41404</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>185227.83329</v>
+        <v>5190389.655739999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>956051.8755</v>
+        <v>21681662.5731</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>465184.74262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10578442.32348</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15013810.359</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>225.67477</v>
+        <v>26.15813</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>42.74205000000001</v>
+        <v>25.662</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>260.88058</v>
+        <v>102.9047</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>421.15165</v>
+        <v>245.08163</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>108.72877</v>
+        <v>5886.44475</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>70.26849</v>
+        <v>117.78752</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>130.70862</v>
+        <v>418.27</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>45.37861</v>
+        <v>95.90858999999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>44.33577</v>
+        <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>2.7894</v>
+        <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1708.96727</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>365.48914</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>0</v>
+        <v>550.7594799999999</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2111,286 +2162,326 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1001.68071</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>950.5434</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>14657.42766</v>
+        <v>146283.77621</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>29828.76448</v>
+        <v>79428.80211</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>31111.68925</v>
+        <v>71699.18817000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>34159.93045</v>
+        <v>122040.84514</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>40267.38813</v>
+        <v>163823.45152</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>47237.82042999999</v>
+        <v>194816.31991</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>67354.92146</v>
+        <v>296610.28036</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>71080.08090999999</v>
+        <v>441298.7958</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>57434.81085</v>
+        <v>709159.4250400001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>203424.03125</v>
+        <v>1405935.85417</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>151728.20108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>776822.9782</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>539122.022</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>47429.67348</v>
+        <v>652578.8822699999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>69092.05721000001</v>
+        <v>665561.9287399999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>70846.88889</v>
+        <v>567364.4493999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>61103.40955</v>
+        <v>346970.25246</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>155847.37519</v>
+        <v>2476287.56803</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>109488.60267</v>
+        <v>1472566.69275</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>199924.18481</v>
+        <v>2059366.26116</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>179153.91451</v>
+        <v>3529796.26388</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>301669.07713</v>
+        <v>5464358.019970001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1069132.01649</v>
+        <v>19563242.62583</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>472608.27687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9730654.970419999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13676876.648</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>277.16391</v>
+        <v>3933.98317</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>963.17871</v>
+        <v>3598.82406</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>824.8535700000001</v>
+        <v>3262.97254</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1581.16159</v>
+        <v>3485.74397</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1537.61055</v>
+        <v>2515.95215</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2100.80016</v>
+        <v>2527.95457</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2146.24589</v>
+        <v>1841.98826</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>573.77232</v>
+        <v>2239.37636</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>723.6022399999999</v>
+        <v>1954.18866</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>844.2934099999999</v>
+        <v>26841.81565</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>642.22112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>14901.03639</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9969.940000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3371.16284</v>
+        <v>14022.05493</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2841.88293</v>
+        <v>6572.124510000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7765.581200000001</v>
+        <v>23068.68435</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>7731.19388</v>
+        <v>11606.65079</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6378.95316</v>
+        <v>10911.08885</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3698.7644</v>
+        <v>60824.12889</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>10502.03693</v>
+        <v>26277.36013</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>34364.2527</v>
+        <v>8811.301820000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7289.967650000001</v>
+        <v>18938.89531</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>84896.48752000001</v>
+        <v>16053.91964</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>32161.75089</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>31764.84725</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>31440.544</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>5068.32444</v>
+        <v>11415.64593</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>25845.1943</v>
+        <v>4123.89454</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>7710.20921</v>
+        <v>8451.888919999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3957.14904</v>
+        <v>25255.08872</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>69656.54561999999</v>
+        <v>42257.95167</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>10792.68643</v>
+        <v>141640.04689</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>7199.925699999999</v>
+        <v>16754.12974</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>5800.54658</v>
+        <v>3161.599380000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>108290.09107</v>
+        <v>101240.10603</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>24933.90488</v>
+        <v>110675.37301</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5630.18827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>44912.11735</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>332881.189</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>35560.9222</v>
+        <v>586284.7325299999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>36069.43486</v>
+        <v>531053.09211</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>35557.9851</v>
+        <v>489144.2263200001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>33124.22289</v>
+        <v>268112.85938</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>68213.51861</v>
+        <v>2323987.63422</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>70414.11512999999</v>
+        <v>1213800.67478</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>154387.07388</v>
+        <v>1930895.46774</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>124801.25361</v>
+        <v>3403780.22123</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>168288.02635</v>
+        <v>4860055.24108</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>938555.96565</v>
+        <v>18040023.59164</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>422065.47392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9280955.673459999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13088113.839</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>33.32796</v>
+        <v>1865.45895</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>21.87835</v>
+        <v>37.08805</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0.7018099999999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>276.58523</v>
+        <v>214.7068</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1253.60502</v>
+        <v>6.93074</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1106.71838</v>
+        <v>181.77522</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2012.34403</v>
+        <v>812.1795500000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>21.27592</v>
+        <v>108.42306</v>
       </c>
       <c r="K41" s="48" t="n">
+        <v>0.38448</v>
+      </c>
+      <c r="L41" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="L41" s="48" t="n">
-        <v>1125.61702</v>
-      </c>
       <c r="M41" s="48" t="n">
-        <v>133.40008</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2408,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>157.54026</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>713.00533</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3118.77213</v>
+        <v>35057.00676</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3350.48806</v>
+        <v>120176.90547</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>18987.558</v>
+        <v>43435.97546</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>14433.09692</v>
+        <v>38295.20280000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8807.142230000001</v>
+        <v>96608.01039999998</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21217.97791</v>
+        <v>53592.11240000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23676.55838</v>
+        <v>82785.13574</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>13592.81338</v>
+        <v>111695.34203</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>17077.38982</v>
+        <v>482169.20441</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>18775.74801</v>
+        <v>1369647.92589</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11262.23726</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>357408.29064</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>214471.136</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>13504.03329</v>
+        <v>292183.30063</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>20826.8512</v>
+        <v>297880.3308</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>33653.57553</v>
+        <v>829697.3184399999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>23040.05788</v>
+        <v>395301.90026</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>62078.52013</v>
+        <v>1873588.67981</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>83034.87316</v>
+        <v>1057397.50281</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>118489.59989</v>
+        <v>1842682.95036</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>130014.1631</v>
+        <v>2091197.14428</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>103577.48395</v>
+        <v>2425601.82135</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>279811.09461</v>
+        <v>14828529.88904</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>273136.10997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>8898314.720170001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9147112.014</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9731.803019999999</v>
+        <v>196555.6831</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>20241.1403</v>
+        <v>213203.46234</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>32271.38898</v>
+        <v>336911.35925</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>21198.77513</v>
+        <v>262008.83028</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>57619.30404</v>
+        <v>1011784.66114</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>73015.05976999999</v>
+        <v>623584.64587</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>101096.71512</v>
+        <v>1009137.54688</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>92307.58958000001</v>
+        <v>1492162.36486</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>91404.82627000001</v>
+        <v>1737137.77992</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>236202.25654</v>
+        <v>8963768.264779998</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>267062.65823</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5858726.43319</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5855419.411</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3772.23027</v>
+        <v>95627.61753</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>585.7108999999999</v>
+        <v>84676.86846</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1382.18655</v>
+        <v>492785.95919</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1841.28275</v>
+        <v>133293.06998</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4459.21609</v>
+        <v>861804.0186699999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>10019.81339</v>
+        <v>433812.85694</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>17392.88477</v>
+        <v>833545.40348</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>37706.57352000001</v>
+        <v>599034.7794199999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12172.65768</v>
+        <v>688464.04143</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>43608.83807</v>
+        <v>5864761.624259999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6073.45174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3039588.28698</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3291692.603</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>63577.83182</v>
+        <v>736240.6318699999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>96049.98476000001</v>
+        <v>915960.861</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>49286.91281</v>
+        <v>1496540.18126</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>108692.59679</v>
+        <v>1175227.07399</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>129605.77465</v>
+        <v>1563661.7753</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>188389.50122</v>
+        <v>972087.82945</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>149900.29303</v>
+        <v>598687.6494100001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>119439.72871</v>
+        <v>571882.15425</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>315861.4450900001</v>
+        <v>1080557.44581</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>803094.84216</v>
+        <v>-495507.87911</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>724615.0006500001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6137823.706069999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1566318.498</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>19411.84018</v>
+        <v>419500.01831</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6215.87365</v>
+        <v>1148050.24667</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>16288.87414</v>
+        <v>275816.32789</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>16140.96265</v>
+        <v>899732.91902</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>16447.33735</v>
+        <v>261275.66804</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>24743.88998</v>
+        <v>278545.19876</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>71109.36918000001</v>
+        <v>479559.41784</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>61548.07217</v>
+        <v>614546.4023600001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>94718.31931000001</v>
+        <v>3894076.33202</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>185561.03285</v>
+        <v>6628938.91377</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>202816.69673</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4129888.46095</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1341858.159</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>395.93178</v>
+        <v>601.51577</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>114.13631</v>
+        <v>1341.05749</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>112.45846</v>
+        <v>2271.73815</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>152.80477</v>
+        <v>1537.89889</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>213.48846</v>
+        <v>3590.99993</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>205.10066</v>
+        <v>1244.5137</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1058.24489</v>
+        <v>2231.84572</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>259.96125</v>
+        <v>1818.2744</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>420.5698</v>
+        <v>1441.26894</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>10986.22763</v>
+        <v>17864.19138</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5843.89748</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>20868.34119</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4410.01</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>19015.9084</v>
+        <v>418898.50254</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6101.73734</v>
+        <v>1146709.18918</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>16176.41568</v>
+        <v>273544.58974</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>15988.15788</v>
+        <v>898195.02013</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>16233.84889</v>
+        <v>257684.66811</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>24538.78932</v>
+        <v>277300.68506</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>70051.12428999999</v>
+        <v>477327.57212</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>61288.11092</v>
+        <v>612728.12796</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>94297.74951000001</v>
+        <v>3892635.06308</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>174574.80522</v>
+        <v>6611074.722390001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>196972.79925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4109020.11976</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1337448.149</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5051.23671</v>
+        <v>83653.133</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>48153.07583</v>
+        <v>98213.20401999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>36921.8997</v>
+        <v>567949.90263</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>19454.79652</v>
+        <v>84555.49794000002</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>26864.06782</v>
+        <v>432177.6418</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>85732.09817</v>
+        <v>341048.14109</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>40700.43763</v>
+        <v>300614.31486</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>76417.16266</v>
+        <v>356454.33441</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>64604.6422</v>
+        <v>228347.7466</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>450763.33325</v>
+        <v>336276.66524</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>675942.7440900001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>410640.77942</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>336327.977</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>176.51192</v>
+        <v>399.31139</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>195.03944</v>
+        <v>312.23941</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>90.93210999999999</v>
+        <v>345.99834</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>11.78788</v>
+        <v>309.06663</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>27.73052</v>
+        <v>626.73401</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>48.26285</v>
+        <v>446.81686</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8.550780000000001</v>
+        <v>478.33066</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>26.59558</v>
+        <v>580.78578</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>38.51457</v>
+        <v>793.1560999999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>55.68747</v>
+        <v>1160.77175</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>36.83769</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1409.77904</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1684.871</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>333.47813</v>
+        <v>941.02589</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>82.95446000000001</v>
+        <v>17466.95382</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>787.14762</v>
+        <v>10310.58545</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1509.36684</v>
+        <v>9921.358130000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3746.11394</v>
+        <v>9105.283530000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2274.65671</v>
+        <v>76652.14973</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4326.31491</v>
+        <v>42657.89079999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4814.942730000001</v>
+        <v>10510.91227</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2151.23248</v>
+        <v>26683.38747</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>27931.73773</v>
+        <v>12356.46492</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7372.967</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>18117.00242</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>42570.514</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4541.24666</v>
+        <v>82312.79571999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>47875.08193</v>
+        <v>80434.01079</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>36043.81997</v>
+        <v>557293.3188400001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>17933.6418</v>
+        <v>74325.07317999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>23090.22336</v>
+        <v>422445.62426</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>83409.17861000002</v>
+        <v>263949.1745</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>36365.57193999999</v>
+        <v>257478.0934</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>71575.62435</v>
+        <v>345362.63636</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>62414.89515</v>
+        <v>200871.20303</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>422775.90805</v>
+        <v>322759.42857</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>668532.9394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>391113.9979599999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>292072.592</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>77938.43529000001</v>
+        <v>1072087.51718</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>54112.78258</v>
+        <v>1965797.90365</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>28653.88725</v>
+        <v>1204406.60652</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>105378.76292</v>
+        <v>1990404.49507</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>119189.04418</v>
+        <v>1392759.80154</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>127401.29303</v>
+        <v>909584.88712</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>180309.22458</v>
+        <v>777632.75239</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>104570.63822</v>
+        <v>829974.2222000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>345975.1222</v>
+        <v>4746286.031230001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>537892.5417599999</v>
+        <v>5797154.36942</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>251488.95329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9857071.387600001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2571848.68</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9241.39849</v>
+        <v>64247.02492</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12414.2744</v>
+        <v>99600.09333</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>12476.13935</v>
+        <v>178909.67819</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>15688.26015</v>
+        <v>38420.12164</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>21155.83375</v>
+        <v>154985.59067</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>26181.24273</v>
+        <v>59496.98015</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>41261.13256000001</v>
+        <v>108633.91859</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>41533.00255</v>
+        <v>119394.72574</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>58728.87729</v>
+        <v>208071.83894</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>102610.79293</v>
+        <v>561284.9654</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>83541.196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>197343.38632</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>209050.481</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>68697.0368</v>
+        <v>1007840.49226</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>41698.50818</v>
+        <v>1866197.81032</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>16177.7479</v>
+        <v>1025496.92833</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>89690.50277000001</v>
+        <v>1951984.37343</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>98033.21043000001</v>
+        <v>1237774.21087</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>101220.0503</v>
+        <v>850087.9069699999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>139048.09202</v>
+        <v>668998.8337999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>63037.63567</v>
+        <v>710579.4964600001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>287246.24491</v>
+        <v>4538214.19229</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>435281.74883</v>
+        <v>5235869.40402</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>167947.75729</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9659728.001279999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2362798.199</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>358</v>
+        <v>206</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>395</v>
+        <v>236</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>459</v>
+        <v>265</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>392</v>
+        <v>218</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>